--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13076135-FB6B-4454-AED4-62AC346CCF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F7A8-400F-412A-8234-380ABAF67F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,6 +1319,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1325,9 +1337,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1336,6 +1345,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF9900"/>
       <color rgb="FF0000CC"/>
       <color rgb="FFD60093"/>
       <color rgb="FFFF66FF"/>
@@ -17240,507 +17251,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>96211</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4952999" cy="4493106"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="図 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42C6C48-A80F-4784-BD03-42EC6F6D4FAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent6">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:artisticLightScreen/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10676284" y="24281428"/>
-          <a:ext cx="4952999" cy="4493106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>112277</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4688417" cy="580448"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A034AB-1F1F-4CD8-BB1C-C6FDD02465A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10800061" y="24537690"/>
-          <a:ext cx="4688417" cy="580448"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-            </a:rPr>
-            <a:t>力</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>239588</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>28868</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2770312" cy="849024"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD62E8-2723-4867-9699-8CD6623FFF4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725371" y="24214085"/>
-          <a:ext cx="2770312" cy="849024"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-              </a:effectLst>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>RiKi</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-            </a:effectLst>
-            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>96211</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4952999" cy="4493106"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="図 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C242192-30C8-4331-8137-E7BB7450DA32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent4">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:artisticLightScreen/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5433392" y="24281428"/>
-          <a:ext cx="4952999" cy="4493106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>149265</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>236102</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3361275" cy="3660486"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="グラフィックス 107" descr="コール センター">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06088FEB-D52B-4B05-BDB6-61232C6D2EF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6319808" y="24901711"/>
-          <a:ext cx="3361275" cy="3660486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>170003</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4688417" cy="580448"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B893D7-8F4B-4169-A9E4-5E19C1BE4A6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5557170" y="24595416"/>
-          <a:ext cx="4688417" cy="580448"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-            </a:rPr>
-            <a:t>力</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>239588</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>72162</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2770312" cy="849024"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="正方形/長方形 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A2CD6D-DB51-4FD7-A8EF-60B7076C22E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5482479" y="24257379"/>
-          <a:ext cx="2770312" cy="849024"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-              </a:effectLst>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>RiKi</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-            </a:effectLst>
-            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>186176</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>1295</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5181019" cy="2859757"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="正方形/長方形 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F7FB07-ED71-4F3B-ABB4-0B0BA4406E8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238567" y="26108078"/>
-          <a:ext cx="5181019" cy="2859757"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="16600" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>日報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182671</xdr:colOff>
       <xdr:row>137</xdr:row>
@@ -17903,6 +17413,977 @@
               <a:ea typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>殊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>184437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418C8370-A3AF-445A-8D47-A1AC0AAA32B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314279" y="29413763"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>129890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9F8097-5F1B-46CE-8359-8869BD4AC558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="29119020"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182671</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="1051727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="正方形/長方形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70063C53-7139-443E-838D-BBDA3E661EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182671" y="32605113"/>
+          <a:ext cx="4971267" cy="1051727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Monjyu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5680</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>173941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2479109" cy="3611217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE819027-8003-4559-BFFF-CCADCB6F2177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21019098">
+          <a:off x="5248571" y="29403267"/>
+          <a:ext cx="2479109" cy="3611217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="23000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>も</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542710</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>3864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1693265" cy="1237993"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828E8D9F-BE68-4555-9C4C-A1D6BB4AB640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19852684">
+          <a:off x="6713253" y="29713581"/>
+          <a:ext cx="1693265" cy="1237993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="12500" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>ん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555647</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>77869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2479109" cy="3611217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181AED61-B887-48F0-B815-7A2F45C35849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20156901">
+          <a:off x="7413647" y="30267978"/>
+          <a:ext cx="2479109" cy="3611217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="19000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>じ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628852</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>114847</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1693265" cy="1237993"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD49A26-497D-4A56-8A93-43B652C64E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20098605">
+          <a:off x="8861765" y="30304956"/>
+          <a:ext cx="1693265" cy="1237993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="11000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>ゆ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>65220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4988598" cy="4530150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C922DDE-2F30-46EF-A6DE-A10D866346D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10676284" y="29054350"/>
+          <a:ext cx="4988598" cy="4530150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>151306</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F81F28F-A0B3-4265-AD9F-3ED73487039A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800061" y="29380632"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>96760</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B54B33E-F536-4D8D-8A40-DC94D5868EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725371" y="29085890"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65241</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>221808</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3770856" cy="3692573"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657D433F-6242-4358-93A5-77F19D89BE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65241" y="24407025"/>
+          <a:ext cx="3770856" cy="3692573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="25900" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>202537</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>24641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="1051727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="正方形/長方形 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02B0578-53C2-46A3-ADEC-3D8E56B8C0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10688320" y="32616706"/>
+          <a:ext cx="4971267" cy="1051727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Monjyu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17277</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2479109" cy="3611217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="正方形/長方形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7ED7B1-FF53-4338-A924-1E72AA08A98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21019098">
+          <a:off x="10503060" y="29398290"/>
+          <a:ext cx="2479109" cy="3611217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="23000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>も</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>554307</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>239082</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1693265" cy="1237993"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="正方形/長方形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC66BD5-F77E-4CCB-A54E-D42F91D9EA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19852684">
+          <a:off x="11967742" y="29708604"/>
+          <a:ext cx="1693265" cy="1237993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="12500" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>ん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>567245</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>72892</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2479109" cy="3611217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA3346F-1B60-4D1C-B571-DC3BD472F4BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20156901">
+          <a:off x="12668136" y="30263001"/>
+          <a:ext cx="2479109" cy="3611217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="19000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>じ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>640450</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>109870</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1693265" cy="1237993"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283B85D8-7C82-4E7E-AC9D-E5A325C40052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20098605">
+          <a:off x="14116254" y="30299979"/>
+          <a:ext cx="1693265" cy="1237993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="11000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>ゆ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23384,8 +23865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
   <dimension ref="A2:AI142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H141" sqref="B124:H141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P146" sqref="P146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23393,6 +23874,7 @@
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
     <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
     <col min="18" max="18" width="2.5" customWidth="1"/>
     <col min="19" max="19" width="3.125" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
@@ -26845,15 +27327,31 @@
       <c r="Q122" s="1"/>
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
@@ -26863,22 +27361,24 @@
       <c r="AI123" s="1"/>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
@@ -26895,22 +27395,24 @@
       <c r="AI124" s="1"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A125" s="38"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
@@ -26927,22 +27429,24 @@
       <c r="AI125" s="1"/>
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
@@ -26959,22 +27463,24 @@
       <c r="AI126" s="1"/>
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="35"/>
+      <c r="Q127" s="35"/>
+      <c r="R127" s="35"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
@@ -26991,22 +27497,24 @@
       <c r="AI127" s="1"/>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="35"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
@@ -27023,22 +27531,24 @@
       <c r="AI128" s="1"/>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="35"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
@@ -27055,22 +27565,24 @@
       <c r="AI129" s="1"/>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
@@ -27087,22 +27599,24 @@
       <c r="AI130" s="1"/>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A131" s="38"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="35"/>
+      <c r="Q131" s="35"/>
+      <c r="R131" s="35"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
@@ -27119,22 +27633,24 @@
       <c r="AI131" s="1"/>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="35"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35"/>
+      <c r="Q132" s="35"/>
+      <c r="R132" s="35"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -27151,22 +27667,24 @@
       <c r="AI132" s="1"/>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A133" s="38"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
@@ -27183,22 +27701,24 @@
       <c r="AI133" s="1"/>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="35"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
+      <c r="Q134" s="35"/>
+      <c r="R134" s="35"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
@@ -27215,22 +27735,24 @@
       <c r="AI134" s="1"/>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="35"/>
+      <c r="Q135" s="35"/>
+      <c r="R135" s="35"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
@@ -27247,22 +27769,24 @@
       <c r="AI135" s="1"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A136" s="38"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="35"/>
+      <c r="Q136" s="35"/>
+      <c r="R136" s="35"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
@@ -27279,22 +27803,24 @@
       <c r="AI136" s="1"/>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A137" s="38"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
@@ -27311,22 +27837,24 @@
       <c r="AI137" s="1"/>
     </row>
     <row r="138" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
+      <c r="O138" s="35"/>
+      <c r="P138" s="35"/>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="35"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
@@ -27343,22 +27871,24 @@
       <c r="AI138" s="1"/>
     </row>
     <row r="139" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
+      <c r="Q139" s="35"/>
+      <c r="R139" s="35"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
@@ -27375,22 +27905,24 @@
       <c r="AI139" s="1"/>
     </row>
     <row r="140" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A140" s="38"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="35"/>
+      <c r="P140" s="35"/>
+      <c r="Q140" s="35"/>
+      <c r="R140" s="35"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
@@ -27407,29 +27939,24 @@
       <c r="AI140" s="1"/>
     </row>
     <row r="141" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A141" s="38"/>
-      <c r="B141" s="38"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="V141" s="1"/>
-      <c r="W141" s="1"/>
-      <c r="X141" s="1"/>
-      <c r="Y141" s="1"/>
-      <c r="Z141" s="1"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+      <c r="N141" s="35"/>
+      <c r="O141" s="35"/>
+      <c r="P141" s="35"/>
+      <c r="Q141" s="35"/>
+      <c r="R141" s="35"/>
       <c r="AC141" s="1"/>
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
@@ -27439,22 +27966,24 @@
       <c r="AI141" s="1"/>
     </row>
     <row r="142" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A142" s="38"/>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
+      <c r="N142" s="35"/>
+      <c r="O142" s="35"/>
+      <c r="P142" s="35"/>
+      <c r="Q142" s="35"/>
+      <c r="R142" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -29143,39 +29672,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="24" x14ac:dyDescent="0.4">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="N1" s="36" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="N1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="3" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="4"/>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="37"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -29236,25 +29765,25 @@
     </row>
     <row r="7" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="36"/>
       <c r="K7" s="10"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="34"/>
+      <c r="U7" s="36"/>
       <c r="V7" s="2" t="s">
         <v>11</v>
       </c>
@@ -29271,13 +29800,13 @@
       <c r="H8" s="14"/>
       <c r="K8" s="10"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="10"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="2"/>
       <c r="W8" s="10"/>
     </row>
@@ -29285,37 +29814,37 @@
       <c r="B9" s="9"/>
       <c r="K9" s="10"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="10"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
       <c r="V9" s="2"/>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9"/>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="36"/>
       <c r="K10" s="10"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="34"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="2" t="s">
         <v>17</v>
       </c>
@@ -29340,17 +29869,17 @@
       </c>
       <c r="K11" s="10"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
       <c r="V11" s="2"/>
       <c r="W11" s="10"/>
     </row>
@@ -29358,35 +29887,35 @@
       <c r="B12" s="9"/>
       <c r="K12" s="10"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="10"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="2"/>
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="36"/>
       <c r="K13" s="10"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="34"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
       <c r="V13" s="2"/>
       <c r="W13" s="10"/>
     </row>
@@ -29409,17 +29938,17 @@
       </c>
       <c r="K14" s="10"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="2"/>
       <c r="W14" s="10"/>
     </row>
@@ -29436,13 +29965,13 @@
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="10"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="2"/>
       <c r="W15" s="10"/>
     </row>
@@ -29457,17 +29986,17 @@
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="34"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="2"/>
       <c r="W16" s="10"/>
     </row>
@@ -29482,38 +30011,38 @@
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="34"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="2"/>
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="36"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="10"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="10"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="2"/>
       <c r="W18" s="10"/>
     </row>
@@ -29530,17 +30059,17 @@
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="34"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="2"/>
       <c r="W19" s="10"/>
     </row>
@@ -29548,17 +30077,17 @@
       <c r="B20" s="9"/>
       <c r="K20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="2"/>
       <c r="W20" s="10"/>
     </row>
@@ -29566,13 +30095,13 @@
       <c r="B21" s="9"/>
       <c r="K21" s="10"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="10"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
       <c r="V21" s="2"/>
       <c r="W21" s="10"/>
     </row>
@@ -29580,39 +30109,39 @@
       <c r="B22" s="9"/>
       <c r="K22" s="10"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="34"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
       <c r="V22" s="2"/>
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="36"/>
       <c r="K23" s="10"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="34"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
       <c r="V23" s="2"/>
       <c r="W23" s="10"/>
     </row>
@@ -29641,13 +30170,13 @@
       </c>
       <c r="K24" s="10"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="10"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="2"/>
       <c r="W24" s="10"/>
     </row>
@@ -29670,8 +30199,8 @@
       </c>
       <c r="Q25" s="10"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
       <c r="V25" s="2"/>
       <c r="W25" s="10"/>
     </row>
@@ -29685,17 +30214,17 @@
       <c r="J26" s="7"/>
       <c r="K26" s="10"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="34"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="2"/>
       <c r="W26" s="10"/>
     </row>
@@ -29714,8 +30243,8 @@
       <c r="M27" s="9"/>
       <c r="Q27" s="10"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="2"/>
       <c r="W27" s="10"/>
     </row>
@@ -29738,8 +30267,8 @@
       </c>
       <c r="Q28" s="10"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
       <c r="V28" s="2"/>
       <c r="W28" s="10"/>
     </row>
@@ -29754,17 +30283,17 @@
       </c>
       <c r="K29" s="10"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="34"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="2"/>
       <c r="W29" s="10"/>
     </row>
@@ -29774,30 +30303,30 @@
       <c r="M30" s="9"/>
       <c r="Q30" s="10"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="2"/>
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="36"/>
       <c r="K31" s="10"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="34" t="s">
+      <c r="N31" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O31" s="34"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
       <c r="V31" s="2"/>
       <c r="W31" s="10"/>
     </row>
@@ -29826,15 +30355,15 @@
       </c>
       <c r="K32" s="10"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
       <c r="P32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
       <c r="V32" s="2"/>
       <c r="W32" s="10"/>
     </row>
@@ -29849,17 +30378,17 @@
       </c>
       <c r="K33" s="10"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="34"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
       <c r="V33" s="2"/>
       <c r="W33" s="10"/>
     </row>
@@ -29870,13 +30399,13 @@
       <c r="J34" s="7"/>
       <c r="K34" s="10"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="10"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
       <c r="V34" s="2"/>
       <c r="W34" s="10"/>
     </row>
@@ -29893,17 +30422,17 @@
       </c>
       <c r="K35" s="10"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="34" t="s">
+      <c r="N35" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="34"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
       <c r="V35" s="2"/>
       <c r="W35" s="10"/>
     </row>
@@ -29911,39 +30440,39 @@
       <c r="B36" s="9"/>
       <c r="K36" s="10"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="34"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q36" s="10"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
       <c r="V36" s="2"/>
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="9"/>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="36"/>
       <c r="K37" s="10"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="34"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
       <c r="V37" s="2"/>
       <c r="W37" s="10"/>
     </row>
@@ -29972,17 +30501,17 @@
       </c>
       <c r="K38" s="10"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="34"/>
+      <c r="O38" s="36"/>
       <c r="P38" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
       <c r="V38" s="2"/>
       <c r="W38" s="10"/>
     </row>
@@ -29997,17 +30526,17 @@
       </c>
       <c r="K39" s="10"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="34" t="s">
+      <c r="N39" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="34"/>
+      <c r="O39" s="36"/>
       <c r="P39" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
       <c r="V39" s="2"/>
       <c r="W39" s="10"/>
     </row>
@@ -30021,16 +30550,16 @@
     </row>
     <row r="41" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="36"/>
       <c r="K41" s="10"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="O41" s="34"/>
+      <c r="O41" s="36"/>
       <c r="P41" s="2" t="s">
         <v>73</v>
       </c>
@@ -30063,8 +30592,8 @@
       </c>
       <c r="K42" s="10"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="10"/>
       <c r="S42" s="9"/>
@@ -30074,10 +30603,10 @@
       <c r="B43" s="9"/>
       <c r="K43" s="10"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="34" t="s">
+      <c r="N43" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="34"/>
+      <c r="O43" s="36"/>
       <c r="P43" s="2" t="s">
         <v>77</v>
       </c>
@@ -30087,14 +30616,14 @@
     </row>
     <row r="44" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9"/>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="36"/>
       <c r="K44" s="10"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="10"/>
       <c r="S44" s="9"/>
@@ -30125,10 +30654,10 @@
       </c>
       <c r="K45" s="10"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="34" t="s">
+      <c r="N45" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="O45" s="34"/>
+      <c r="O45" s="36"/>
       <c r="P45" s="2" t="s">
         <v>81</v>
       </c>
@@ -30140,8 +30669,8 @@
       <c r="B46" s="9"/>
       <c r="K46" s="10"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="10"/>
       <c r="S46" s="9"/>
@@ -30149,10 +30678,10 @@
     </row>
     <row r="47" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="36"/>
       <c r="K47" s="10"/>
       <c r="M47" s="9"/>
       <c r="Q47" s="10"/>
@@ -30337,10 +30866,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
@@ -30360,10 +30889,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="36"/>
       <c r="K6" s="2" t="s">
         <v>86</v>
       </c>
@@ -30389,10 +30918,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
       <c r="K9" s="2" t="s">
         <v>88</v>
       </c>
@@ -30447,10 +30976,10 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="36"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -30467,10 +30996,10 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="11" t="s">
@@ -30561,10 +31090,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="11" t="s">
@@ -30627,10 +31156,10 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="11" t="s">
@@ -30668,10 +31197,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="11" t="s">
@@ -30705,10 +31234,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="36"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="11" t="s">
@@ -30742,10 +31271,10 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="26" t="s">
@@ -30822,10 +31351,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
@@ -30842,164 +31371,164 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F7A8-400F-412A-8234-380ABAF67F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAB0C6-9039-4E7F-B898-2FFEC1E6C20F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="8" r:id="rId1"/>
@@ -10735,6 +10735,128 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>81782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119322BB-6D91-4B1B-99C0-6BCC32337295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15919175" y="24266999"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825E9F13-F413-E99C-8856-C1063BE9C1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16333304" y="29262457"/>
+          <a:ext cx="4240695" cy="4240695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>81782</xdr:rowOff>
     </xdr:from>
@@ -10830,13 +10952,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10955,13 +11077,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11266,16 +11388,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId9"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15535,13 +15657,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16491,13 +16613,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16919,78 +17041,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>81782</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4952999" cy="4493106"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="図 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119322BB-6D91-4B1B-99C0-6BCC32337295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:artisticLightScreen/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15919175" y="24266999"/>
-          <a:ext cx="4952999" cy="4493106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
@@ -18385,6 +18435,68 @@
             </a:rPr>
             <a:t>ゆ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167115</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>40446</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5339773" cy="2804935"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4562A0A-19F3-4FE6-9F2C-021F15477530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15608821" y="30576475"/>
+          <a:ext cx="5339773" cy="2804935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="15000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="15000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22309,9 +22421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -22349,7 +22461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -22455,7 +22567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22597,7 +22709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23865,8 +23977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
   <dimension ref="A2:AI142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P146" sqref="P146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AI141" sqref="AC124:AI141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAB0C6-9039-4E7F-B898-2FFEC1E6C20F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3429D9-4ED5-4BAC-A42C-02B5E78208D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -10733,6 +10733,130 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="図 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3CFEE9-2244-4F2F-AF06-3ED71246FBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10608880" y="23915280"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>161703</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="896592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="正方形/長方形 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26613B89-63F2-442B-AF89-C357DFFC7802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10602311" y="36987324"/>
+          <a:ext cx="4971267" cy="896592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>122</xdr:row>
@@ -18489,6 +18613,1004 @@
             <a:t>MCP</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="15000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>81782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="図 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6456FD6-4A17-4D41-AE7B-6820F59161B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15818070" y="23900851"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>81779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4988598" cy="4530150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="図 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9792D421-ECC6-4429-AF09-F885B440D8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190501" y="23900848"/>
+          <a:ext cx="4988598" cy="4530150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>184437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B681E8B-EEAC-481D-8836-87432DD68292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="310566" y="24239989"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>129890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16F9624-27C4-4D19-B850-162B36076AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="23948959"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>126710</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632B25AF-E2BB-476D-B3AC-913D8F497033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15938135" y="24182262"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>28869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A248099D-8EB8-4D5A-94A9-B73F8CAE1698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15867157" y="23847938"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>112277</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3610B7F5-5D81-4185-A93B-EAEDFCBB98AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728945" y="24167829"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DB722B-3339-4FB9-AB2D-A8CDC38E9C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10657967" y="23847937"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="図 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF60B8-F1C5-4113-B338-8FD3E538DF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5399691" y="23915280"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149265</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>236102</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3361275" cy="3660486"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="グラフィックス 139" descr="コール センター">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51175EC4-EEA3-407F-BBA7-CB2A2F14C00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6278110" y="24528136"/>
+          <a:ext cx="3361275" cy="3660486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>170003</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BF41A6-8F7D-4D58-BE4E-4D3154E14B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5519755" y="24225555"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>72162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F678F2A-1356-46CC-AC79-81EEAAD72A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448778" y="23891231"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182671</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="1051727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152450D3-8F69-4AA0-A82A-4D993AE09042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182671" y="27379358"/>
+          <a:ext cx="4971267" cy="1051727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Monjyu</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144517</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>210206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4571123" cy="911163"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE456CB9-AD81-4431-A10D-B4ED6D9B3A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10799379" y="36799344"/>
+          <a:ext cx="4571123" cy="911163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5339773" cy="2352824"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0984C75B-F365-4A6A-B6B1-133074B50FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10418379" y="34257156"/>
+          <a:ext cx="5339773" cy="2352824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="12500" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>AiDiy</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="12500" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -23975,10 +25097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
-  <dimension ref="A2:AI142"/>
+  <dimension ref="A2:AI162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AI141" sqref="AC124:AI141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M142" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Z161" sqref="T144:Z161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28097,6 +29219,564 @@
       <c r="Q142" s="35"/>
       <c r="R142" s="35"/>
     </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+    </row>
+    <row r="145" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+    </row>
+    <row r="146" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+    </row>
+    <row r="147" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+      <c r="AG147" s="1"/>
+      <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
+    </row>
+    <row r="148" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+      <c r="AC148" s="1"/>
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+    </row>
+    <row r="149" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
+      <c r="AC149" s="1"/>
+      <c r="AD149" s="1"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+      <c r="AG149" s="1"/>
+      <c r="AH149" s="1"/>
+      <c r="AI149" s="1"/>
+    </row>
+    <row r="150" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+    </row>
+    <row r="151" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+    </row>
+    <row r="152" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+    </row>
+    <row r="153" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+    </row>
+    <row r="154" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
+      <c r="AC154" s="1"/>
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+    </row>
+    <row r="155" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+    </row>
+    <row r="156" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="Z156" s="1"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="1"/>
+      <c r="AG156" s="1"/>
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+    </row>
+    <row r="157" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+    </row>
+    <row r="158" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
+      <c r="AC158" s="1"/>
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1"/>
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+    </row>
+    <row r="159" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+    </row>
+    <row r="160" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+      <c r="AC160" s="1"/>
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1"/>
+      <c r="AH160" s="1"/>
+      <c r="AI160" s="1"/>
+    </row>
+    <row r="161" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
+      <c r="AH161" s="1"/>
+      <c r="AI161" s="1"/>
+    </row>
+    <row r="162" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28109,7 +29789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717500BE-C8E0-43F5-9FE7-5C046546F916}">
   <dimension ref="B2:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="66" workbookViewId="0">
       <selection activeCell="AR20" sqref="AL3:AR20"/>
     </sheetView>
   </sheetViews>
@@ -30862,36 +32542,46 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="N22:O22"/>
@@ -30906,46 +32596,36 @@
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31644,13 +33324,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -31663,18 +33348,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
